--- a/Tabelas.xlsx
+++ b/Tabelas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Git\hbr-solar-forecast-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7AB7A3-005F-47C6-8D2A-079F979466C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E68ABF-ADA4-4654-BFA9-ED8F705B0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="165" windowWidth="13080" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="270" windowWidth="14190" windowHeight="15285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flares" sheetId="1" r:id="rId1"/>
     <sheet name="Storms" sheetId="2" r:id="rId2"/>
     <sheet name="Métricas" sheetId="3" r:id="rId3"/>
+    <sheet name="Targets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="175">
   <si>
     <t>DATE</t>
   </si>
@@ -194,18 +195,6 @@
     <t>NN</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
     <t>ROC-AUC</t>
   </si>
   <si>
@@ -604,12 +593,6 @@
     <t>Reccurent Neural Network - Gated Recurrent Unit</t>
   </si>
   <si>
-    <t>Erupção solar</t>
-  </si>
-  <si>
-    <t>Tempestade geomagnética</t>
-  </si>
-  <si>
     <t>Razão entre partículas alfa e prótons</t>
   </si>
   <si>
@@ -659,13 +642,284 @@
   </si>
   <si>
     <t>Desvio Padrão RMS da componente Z média no GSE</t>
+  </si>
+  <si>
+    <t>Erupções solares</t>
+  </si>
+  <si>
+    <t>Tempestades geomagnéticas</t>
+  </si>
+  <si>
+    <t>Precisão</t>
+  </si>
+  <si>
+    <t>Revocação</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt; 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&gt; 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> – 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> – 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> – 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pico de fluxo (W m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>.-50 – -100</t>
+  </si>
+  <si>
+    <t>&gt; -50</t>
+  </si>
+  <si>
+    <t>Classe de tempestade</t>
+  </si>
+  <si>
+    <t>Moderada</t>
+  </si>
+  <si>
+    <t>Valor mínimo de índice Dst (nT)</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Severa</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>&lt; -350</t>
+  </si>
+  <si>
+    <t>.-100 – -200</t>
+  </si>
+  <si>
+    <t>.-200 – -350</t>
+  </si>
+  <si>
+    <t>Fraca ou Ausente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +956,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -711,7 +991,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -770,12 +1050,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +1105,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1100,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1117,32 +1445,32 @@
         <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1153,13 +1481,13 @@
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1168,7 +1496,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -1176,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1187,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1198,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1209,10 +1537,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1220,10 +1548,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1231,10 +1559,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1242,10 +1570,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1253,10 +1581,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1264,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1275,10 +1603,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1286,10 +1614,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -1297,10 +1625,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1308,10 +1636,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1319,10 +1647,10 @@
         <v>14</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1330,10 +1658,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -1342,7 +1670,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -1350,10 +1678,10 @@
         <v>17</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1361,10 +1689,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1372,10 +1700,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1383,10 +1711,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1394,10 +1722,10 @@
         <v>21</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1405,10 +1733,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1416,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1427,10 +1755,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1439,18 +1767,18 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1459,7 +1787,7 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1468,7 +1796,7 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -1477,7 +1805,7 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -1486,7 +1814,7 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1495,7 +1823,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1504,7 +1832,7 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1538,13 +1866,13 @@
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1556,13 +1884,13 @@
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1571,7 +1899,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1579,10 +1907,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1590,10 +1918,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1601,10 +1929,10 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1612,10 +1940,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -1623,10 +1951,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1634,10 +1962,10 @@
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -1645,10 +1973,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -1656,10 +1984,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -1667,10 +1995,10 @@
         <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -1678,10 +2006,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1689,10 +2017,10 @@
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1700,10 +2028,10 @@
         <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1711,10 +2039,10 @@
         <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -1723,7 +2051,7 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1731,10 +2059,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -1743,7 +2071,7 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -1751,10 +2079,10 @@
         <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1763,7 +2091,7 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1784,256 +2112,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8625F2-AAB8-4A94-8C19-9401BAE70195}">
-  <dimension ref="E4:J26"/>
+  <dimension ref="E4:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F5" s="1" t="s">
+      <c r="E4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="5:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F6" s="17">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.4516</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.82489999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.4249</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.80920000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.51780000000000004</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.4516</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.82489999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+      <c r="F9" s="25">
+        <v>0.6431</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.4778</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.85509999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="5:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="22"/>
+      <c r="F12" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.4783</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.91659999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.61429999999999996</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.47570000000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.76229999999999998</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.43380000000000002</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.82399999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
+      <c r="F14" s="18">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.3725</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0.8629</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.58940000000000003</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.44829999999999998</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.74590000000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.4249</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.80920000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.6431</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.4778</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.83609999999999995</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.54359999999999997</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.85509999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="F15" s="18">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0.96330000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.41120000000000001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.4783</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.91659999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.22919999999999999</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.81259999999999999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.3725</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.8629</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.26979999999999998</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.92330000000000001</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.96330000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.50819999999999999</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.34329999999999999</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.74770000000000003</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.40849999999999997</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.94720000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="25">
+        <v>0.4748</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.95009999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="14" t="s">
-        <v>130</v>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B25D9AC-6EC9-4141-B5DD-5409E91448F6}">
+  <dimension ref="C5:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Tabelas.xlsx
+++ b/Tabelas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Git\hbr-solar-forecast-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E68ABF-ADA4-4654-BFA9-ED8F705B0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2080A-812C-4027-A1A8-8C64FE853ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="270" windowWidth="14190" windowHeight="15285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13545" yWindow="180" windowWidth="14190" windowHeight="15285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flares" sheetId="1" r:id="rId1"/>
     <sheet name="Storms" sheetId="2" r:id="rId2"/>
     <sheet name="Métricas" sheetId="3" r:id="rId3"/>
     <sheet name="Targets" sheetId="4" r:id="rId4"/>
+    <sheet name="Parâmetros" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -650,9 +651,6 @@
     <t>Tempestades geomagnéticas</t>
   </si>
   <si>
-    <t>Precisão</t>
-  </si>
-  <si>
     <t>Revocação</t>
   </si>
   <si>
@@ -910,6 +908,9 @@
   </si>
   <si>
     <t>Fraca ou Ausente</t>
+  </si>
+  <si>
+    <t>Precisão média</t>
   </si>
 </sst>
 </file>
@@ -917,7 +918,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1106,19 +1107,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,7 +1131,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,6 +1139,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2126,218 +2127,218 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="5:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="5:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.4516</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.82489999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.67210000000000003</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.4723</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.85770000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="5:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="20"/>
+      <c r="F12" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="G12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="I12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="20" t="s">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="17">
-        <v>0.51780000000000004</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.4516</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.82489999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="21" t="s">
+      <c r="F13" s="16">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.4783</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.91659999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="18">
-        <v>0.61429999999999996</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.47570000000000001</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.76229999999999998</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.43380000000000002</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.82399999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="21" t="s">
+      <c r="F14" s="17">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.3725</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0.8629</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="18">
-        <v>0.58940000000000003</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.44829999999999998</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.74590000000000001</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0.4249</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0.80920000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="24" t="s">
+      <c r="F15" s="17">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0.96330000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="25">
-        <v>0.6431</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0.4778</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0.83609999999999995</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0.54359999999999997</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0.85509999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="5:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.41120000000000001</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0.4783</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.91659999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0.22919999999999999</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.81259999999999999</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.3725</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0.8629</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.26979999999999998</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.92330000000000001</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0.54490000000000005</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0.96330000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="F16" s="23">
         <v>0.4748</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="23">
         <v>0.29060000000000002</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="23">
         <v>0.82189999999999996</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="23">
         <v>0.49390000000000001</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>0.95009999999999994</v>
       </c>
     </row>
@@ -2391,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B25D9AC-6EC9-4141-B5DD-5409E91448F6}">
   <dimension ref="C5:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,102 +2406,119 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="23" t="s">
+      <c r="D10" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E15" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="E15" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="E16" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F67411C-F5E1-4060-A46C-6409F7F3DDCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>